--- a/medicine/Sexualité et sexologie/Urètre/Urètre.xlsx
+++ b/medicine/Sexualité et sexologie/Urètre/Urètre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ur%C3%A8tre</t>
+          <t>Urètre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'urètre (orthographié parfois urèthre) est le canal de sortie de la vessie. Il a une fonction excrétrice dans les deux sexes (sortie de l’urine) et de plus chez l’homme une fonction reproductrice (passage du sperme). Urétral (ou uréthral) est l’adjectif correspondant (noter le changement d’accent sur le e).
 Le sphincter de l'urètre est le muscle qui permet le contrôle volontaire sur la miction.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ur%C3%A8tre</t>
+          <t>Urètre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,14 +527,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Urètre féminin
-Chez la femme, l’urètre est très court (environ 3,5 cm), pour un diamètre de 6 mm environ,  et débouche sur la vulve entre le clitoris et l’ouverture du vagin par le méat urinaire.
+          <t>Urètre féminin</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Chez la femme, l’urètre est très court (environ 3,5 cm), pour un diamètre de 6 mm environ,  et débouche sur la vulve entre le clitoris et l’ouverture du vagin par le méat urinaire.
 Son extrémité distale est appelée ostium urétral. De part et d’autre s’abouchent les glandes para-urétrales ou glandes de Skene.
 Il est divisé en deux parties, séparées par le muscle urétrovaginal :
 l’urètre pelvien, engainé par le sphincter de la vessie, prolongement du muscle détrusor (muscle lisse) ;
-l’urètre périnéal, qui traverse l’aponévrose moyenne du périnée et qui est entouré par le muscle sphincter urétral (muscle strié). Cette portion est sujette aux traumatismes du périnée.
-Urètre masculin
-Chez l’homme, l’urètre mesure environ 15 cm et débouche à la fin du pénis.
+l’urètre périnéal, qui traverse l’aponévrose moyenne du périnée et qui est entouré par le muscle sphincter urétral (muscle strié). Cette portion est sujette aux traumatismes du périnée.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Urètre</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ur%C3%A8tre</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Anatomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Urètre masculin</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Chez l’homme, l’urètre mesure environ 15 cm et débouche à la fin du pénis.
 Il est plus long que chez la femme, et il est composé de plusieurs parties ayant chacune une fonction. En raison de cette différence de taille, les femmes sont plus sujettes aux infections urinaires basses (cystites). La longueur de l’urètre masculin et le fait qu’il présente plusieurs coudes rendent le sondage et les gestes rétrogrades plus difficiles.
 L’urètre masculin est divisé en quatre parties, désignées selon leur localisation :
 l'urètre intra-mural ou "pré-prostatique" est situé au niveau du col vésical et est entouré par le sphincter vésical lisse ;
@@ -533,31 +584,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Ur%C3%A8tre</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Urètre</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Sexualité et sexologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ur%C3%A8tre</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Histologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L’épithélium urétral prostatique se classe dans les épithéliums de transition.
 Il existe une densification aux couches superficielles de cet épithélium, au niveau de la membrane cytoplasmique de la dernière couche de cellules permettant ainsi de lutter contre les phénomènes d’osmolarité car l’urine peut être hyperosmolaire.
@@ -567,31 +620,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ur%C3%A8tre</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Urètre</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Sexualité et sexologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ur%C3%A8tre</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Problèmes médicaux de l’urètre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Urétrite : infection de l’urètre.
 Hypospadias : malformation congénitale, ouverture de la face inférieure de l'urètre.
@@ -601,31 +656,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ur%C3%A8tre</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Urètre</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Sexualité et sexologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ur%C3%A8tre</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Examens complémentaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'endoscopie de la vessie via l'urètre est appelée cystoscopie.
 Sur les autres projets Wikimedia :
